--- a/medicine/Psychotrope/Charentais_(IGP)/Charentais_(IGP).xlsx
+++ b/medicine/Psychotrope/Charentais_(IGP)/Charentais_(IGP).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le charentais, appelé vin de pays charentais jusqu'en 2009, est un vin français d'indication géographique protégée (le nouveau nom des vins de pays) de zone, qui est produit dans les deux départements des Charentes, c'est-à-dire la Charente et la Charente-Maritime.
@@ -512,7 +524,9 @@
           <t>Mentions géographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il peut être ajouté à la mention « charentais », les désignations géographiques suivantes :
 Île de Ré, pour les vins produits dans les cantons d'Ars-en-Ré et de Saint-Martin-de-Ré, en Charente-Maritime.
@@ -545,7 +559,9 @@
           <t>Encépagement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour avoir droit à la dénomination, les vins doivent provenir des cépages suivants :
 Cépages noirs : cabernet franc, cabernet-sauvignon, merlot noir, gamay, tannat (pour l'île de Ré uniquement), pinot noir.
@@ -580,7 +596,9 @@
           <t>Mention du cépage sur l'étiquette</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La dénomination vin charentais peut être complétée par le nom d'un cépage ; dans ce cas les vins doivent être issus de superficies exclusivement plantées du cépage concerné et figurant dans la liste suivante :
 vins rouges : cabernet franc, cabernet-sauvignon, gamay, merlot.
@@ -617,11 +635,13 @@
           <t>Vin et gastronomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les vins rouges, racés et charpentés, dégagent des arômes des cépages nobles qui les composent. Ils accompagnent les repas en famille ou entre amis. C'est là qu'ils dévoilent toute leur finesse. Ces vins peuvent parfaitement vieillir jusqu'à six à douze mois en bouteille et se dégustent à la température idéale de 16 °C. Ils se marient parfaitement avec les charcuteries, viandes rouges, tartes salées et fromages[3].
-Les vins rosés sont tout en nuances et en délicatesse. C'est pourquoi ils sont appréciés des gourmets qui aiment retrouver dans leur verre un vin frais et fruité associant plaisir et élégance. Ils se dégustent frais et accompagnent aussi bien les salades que les grillades, les plats exotiques que les coupes de fruits[3].
-Les vins blancs sont des vins secs, légers et subtilement parfumés. Ces blancs aromatiques doivent se déguster frais au cours des repas ou en apéritif. Ils se marient avec bonheur à de nombreuses spécialités locales où entrent les poissons et les fruits de mer, ainsi qu'avec des viandes blanches, des fromages de chèvre et des tartes sucrées[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins rouges, racés et charpentés, dégagent des arômes des cépages nobles qui les composent. Ils accompagnent les repas en famille ou entre amis. C'est là qu'ils dévoilent toute leur finesse. Ces vins peuvent parfaitement vieillir jusqu'à six à douze mois en bouteille et se dégustent à la température idéale de 16 °C. Ils se marient parfaitement avec les charcuteries, viandes rouges, tartes salées et fromages.
+Les vins rosés sont tout en nuances et en délicatesse. C'est pourquoi ils sont appréciés des gourmets qui aiment retrouver dans leur verre un vin frais et fruité associant plaisir et élégance. Ils se dégustent frais et accompagnent aussi bien les salades que les grillades, les plats exotiques que les coupes de fruits.
+Les vins blancs sont des vins secs, légers et subtilement parfumés. Ces blancs aromatiques doivent se déguster frais au cours des repas ou en apéritif. Ils se marient avec bonheur à de nombreuses spécialités locales où entrent les poissons et les fruits de mer, ainsi qu'avec des viandes blanches, des fromages de chèvre et des tartes sucrées.
 </t>
         </is>
       </c>
